--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rb32c1e109fed406d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rd846b47bd1dd4451"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc97e3ab08dc24a7d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72de1a19e59a4bff"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R10b5d6ba462c4b03"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b7a4bf91aa74ccf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rd846b47bd1dd4451"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rfb007d7a638848b9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72de1a19e59a4bff"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf6b9605e85a6429f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8b7a4bf91aa74ccf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R31ff15c6eeff4c1e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rfb007d7a638848b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Ra42b26d8984c4e5e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf6b9605e85a6429f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re84c082c92494be2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R31ff15c6eeff4c1e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4f62871af2204831"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Ra42b26d8984c4e5e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R5c5b402fe8cd4ca6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re84c082c92494be2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R44720a39d7bb48cd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4f62871af2204831"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0bf6e6af2c14463"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R5c5b402fe8cd4ca6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R89b4966ba09d4b64"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R44720a39d7bb48cd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38e7cf140bac414d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf0bf6e6af2c14463"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9a4346e24e3f4ebc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R89b4966ba09d4b64"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Re79e76f3683c47f7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38e7cf140bac414d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re300baecbc5943c2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9a4346e24e3f4ebc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc176e7ac7a954e8f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Re79e76f3683c47f7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R3a4eb68ad06a4e22"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re300baecbc5943c2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72ab5f75a52c450a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc176e7ac7a954e8f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0214326426594917"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R3a4eb68ad06a4e22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rf53eb5b2b6cf4ba7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R72ab5f75a52c450a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad046f8ddd6141ce"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0214326426594917"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R499b0cfa08624ece"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rf53eb5b2b6cf4ba7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rd77c6512fc85415a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad046f8ddd6141ce"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra296351078ad4b2b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R499b0cfa08624ece"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9ee5a98b107f4b16"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rd77c6512fc85415a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rd630fc389c6a4b8d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra296351078ad4b2b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfc41173a20f341d0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9ee5a98b107f4b16"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rec23f2a5ad9944fe"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rd630fc389c6a4b8d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R39073e31af7542a7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfc41173a20f341d0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R50e4c56c3d324bf2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rec23f2a5ad9944fe"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra4f2396a9eaf4165"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R39073e31af7542a7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R3337c4265d3a488d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R50e4c56c3d324bf2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra74dc8e2c91b421a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra4f2396a9eaf4165"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a04e87600864f5a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/094_LineChartWithDataLabels.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="R3337c4265d3a488d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Trend" sheetId="1" r:id="Rcbda242253874360"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -223,7 +223,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra74dc8e2c91b421a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R81d9ab2eb3e74e41"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -308,6 +308,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4a04e87600864f5a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd2c955a94e934be1"/>
 </x:worksheet>
 </file>